--- a/data/postprocessed/postprocessed_jaffe2_supReg.xlsx
+++ b/data/postprocessed/postprocessed_jaffe2_supReg.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>r7S</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>f78,</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>f81</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>p86a</t>
+          <t>86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>f87a</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>p87ß</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>r 123a</t>
+          <t xml:space="preserve"> 123</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1131a</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>f139a</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>f162a</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1173a</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1180e</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>f 180,</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p206a</t>
+          <t>206</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>233a</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>233„</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>f 250a</t>
+          <t xml:space="preserve"> 250</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1250ß</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>f270</t>
+          <t>270</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>f 270ß</t>
+          <t xml:space="preserve"> 270</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>271a</t>
+          <t>271</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>272a</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>252a</t>
+          <t>252</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>f320a</t>
+          <t>320</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>f320ß</t>
+          <t>320</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>436a</t>
+          <t>436</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>529a</t>
+          <t>529</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>550a</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>p618a</t>
+          <t>618</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(699a</t>
+          <t>(699</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>p806a</t>
+          <t>806</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>871a</t>
+          <t>871</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>879a</t>
+          <t>879</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>879ß</t>
+          <t>879</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>f937a</t>
+          <t>937</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>p973a</t>
+          <t>973</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>p973ß</t>
+          <t>973</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2072e</t>
+          <t>2072</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>f2084</t>
+          <t>2084</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>665.</t>
+          <t>665</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2089a</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2102a</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>678 Nai. 15.</t>
+          <t>678 Mai. 15.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2106a</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2122a</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2137a</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>702—</t>
+          <t>702</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12140a</t>
+          <t>12140</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>f2175a</t>
+          <t>2175</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2228a</t>
+          <t>2228</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>f2249a</t>
+          <t>2249</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>f 2255ß</t>
+          <t xml:space="preserve"> 2255</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2302a</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2302ß</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12511a</t>
+          <t>12511</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>p2512a</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>f2512ß</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>805 Int. 26.</t>
+          <t>805 Iun. 26.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2552a</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>834 Int. 26.</t>
+          <t>834 Iun. 26.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2593e</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2603a</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2659—</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2671a</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2671ß</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2671y</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2798a</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2856y</t>
+          <t>2856</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>„869.</t>
+          <t>869</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2946a</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3363a</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3363ß</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3506a</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3548a</t>
+          <t>3548</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3587a</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>4015a</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4025a</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4043a</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1027 Non. 91.</t>
+          <t>1027 Nov. 91.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4083a</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4109a</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4111a</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1044.</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1042 lun. 6.</t>
+          <t>1042 Iun. 6.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4115a</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1044 Lan. 6.</t>
+          <t>1044 Ian. 6.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4115ß</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1044 Lan. 6.</t>
+          <t>1044 Ian. 6.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4115y</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1050.</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1051.</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1049—</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1054?</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4356a</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4441a</t>
+          <t>4441</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4554a</t>
+          <t>4554</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>5149a</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5149ß</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>5273a</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5273ß</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>5317a</t>
+          <t>5317</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>5326a</t>
+          <t>5326</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1095.</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5406a</t>
+          <t>5406</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1090.</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5430a</t>
+          <t>5430</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5990a</t>
+          <t>5990</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5990ß</t>
+          <t>5990</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1106.</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>6077a</t>
+          <t>6077</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1111.</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1112.</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>6330a</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1113.</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>6353a</t>
+          <t>6353</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>6502a</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6511a</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>6529a</t>
+          <t>6529</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>6678a</t>
+          <t>6678</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>6780a</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1123 lul. 10.</t>
+          <t>1123 Iul. 10.</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7075a</t>
+          <t>7075</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>7088a</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1121 lul. 112410.</t>
+          <t>1121 Iul. 112410.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>7188a</t>
+          <t>7188</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>7390a</t>
+          <t>7390</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>7390ß</t>
+          <t>7390</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>7480a</t>
+          <t>7480</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>7667a</t>
+          <t>7667</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>7667ß</t>
+          <t>7667</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>17750a</t>
+          <t>17750</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>7890a</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1139.</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>8016a</t>
+          <t>8016</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>8052a</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>8066a</t>
+          <t>8066</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>18099a</t>
+          <t>18099</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>8166a</t>
+          <t>8166</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1138—</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1142 lun. 7.</t>
+          <t>1142 Iun. 7.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>8312a</t>
+          <t>8312</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>114s</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>8472a</t>
+          <t>8472</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>8654a</t>
+          <t>8654</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>8696a</t>
+          <t>8696</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>8796a</t>
+          <t>8796</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>9053a</t>
+          <t>9053</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>9221a</t>
+          <t>9221</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>9248a</t>
+          <t>9248</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>9280a</t>
+          <t>9280</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>9291a</t>
+          <t>9291</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>9297ß</t>
+          <t>9297</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1153.</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1153—</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1154.</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>9p</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>10023a</t>
+          <t>10023</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>10415ß</t>
+          <t>10415</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>10423a</t>
+          <t>10423</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>10630a</t>
+          <t>10630</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>10656a</t>
+          <t>10656</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>10657e</t>
+          <t>10657</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>10676a</t>
+          <t>10676</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>10698a</t>
+          <t>10698</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>10803a</t>
+          <t>10803</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1163.</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>10807a</t>
+          <t>10807</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>10870a</t>
+          <t>10870</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1163.</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1163—</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>10983a</t>
+          <t>10983</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>11124a</t>
+          <t>11124</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1165.</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>11259a</t>
+          <t>11259</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>11288a</t>
+          <t>11288</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>11621a</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>11621ß</t>
+          <t>11621</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>(1021;</t>
+          <t>(1021</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>11837a</t>
+          <t>11837</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>11837ß</t>
+          <t>11837</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>12160a</t>
+          <t>12160</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>12174e</t>
+          <t>12174</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>12192a</t>
+          <t>12192</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>12233a</t>
+          <t>12233</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>12518a</t>
+          <t>12518</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>12557a</t>
+          <t>12557</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>12578a</t>
+          <t>12578</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>12676a</t>
+          <t>12676</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>12690a</t>
+          <t>12690</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>12690ß</t>
+          <t>12690</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>12713a</t>
+          <t>12713</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>12750a</t>
+          <t>12750</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>12768a</t>
+          <t>12768</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>12775a</t>
+          <t>12775</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>12816a</t>
+          <t>12816</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>12846a</t>
+          <t>12846</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1177 lun. 9.</t>
+          <t>1177 Iun. 9.</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>12866a</t>
+          <t>12866</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>112890a</t>
+          <t>112890</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>13009a</t>
+          <t>13009</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1178 lun. 30.</t>
+          <t>1178 Iun. 30.</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>13179a</t>
+          <t>13179</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>13194a</t>
+          <t>13194</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>13317a</t>
+          <t>13317</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>13333a</t>
+          <t>13333</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>13635a</t>
+          <t>13635</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>13723a</t>
+          <t>13723</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>14521ß</t>
+          <t>14521</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>14549a</t>
+          <t>14549</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>14549ß</t>
+          <t>14549</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>14549y</t>
+          <t>14549</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>14789a</t>
+          <t>14789</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>14951a</t>
+          <t>14951</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>1184 lan. 2.</t>
+          <t>1184 Ian. 2.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>15020a</t>
+          <t>15020</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>1184 Oet. 30.</t>
+          <t>1184 Oct. 30.</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>p15105a</t>
+          <t>15105</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>15135a</t>
+          <t>15135</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>15136a</t>
+          <t>15136</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>15190a</t>
+          <t>15190</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>15219a</t>
+          <t>15219</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>15266a</t>
+          <t>15266</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>15271a</t>
+          <t>15271</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>15317a</t>
+          <t>15317</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>15343a</t>
+          <t>15343</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>15364a</t>
+          <t>15364</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>1185 Lun. 13.</t>
+          <t>1185 Iun. 13.</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>15580a</t>
+          <t>15580</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>15587a</t>
+          <t>15587</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>1186 Ang. 1.</t>
+          <t>1186 Aug. 1.</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>15656a</t>
+          <t>15656</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>15723a</t>
+          <t>15723</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>15723ß</t>
+          <t>15723</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>1186 lan. 11873.</t>
+          <t>1186 Ian. 11873.</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>15758a</t>
+          <t>15758</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>1186 lan. 118720.</t>
+          <t>1186 Ian. 118720.</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>1186 lan. 118730.</t>
+          <t>1186 Ian. 118730.</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>15780ß</t>
+          <t>15780</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>15782a</t>
+          <t>15782</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>15917a</t>
+          <t>15917</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oct Der.  </t>
+          <t xml:space="preserve"> Oct Dec.  </t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -10515,7 +10515,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>116082a</t>
+          <t>116082</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>16275a</t>
+          <t>16275</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>1189.</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>16651ß</t>
+          <t>16651</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>17018a</t>
+          <t>17018</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>17070a</t>
+          <t>17070</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>17107a</t>
+          <t>17107</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>17294a</t>
+          <t>17294</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>1196.</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>f17429a</t>
+          <t>17429</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
